--- a/Table/Table_xls/k快捷购买道具表.xlsx
+++ b/Table/Table_xls/k快捷购买道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13515" windowHeight="12195"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>道具id</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>炼兽珍经</t>
+  </si>
+  <si>
+    <t>宠物口粮</t>
   </si>
   <si>
     <t>美味风蛇</t>
@@ -149,15 +152,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -172,42 +180,75 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,6 +260,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -227,30 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,87 +315,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,13 +350,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +440,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,19 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,155 +506,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,6 +607,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,30 +629,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,22 +648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,165 +667,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1211,309 +1244,326 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="11.1296296296296" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>310000</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>1125</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>310001</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1126</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>310100</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>3011</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>310101</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>3005</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="8">
+        <v>310200</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
         <v>320003</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="4">
         <v>5002</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
         <v>320006</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="4">
         <v>5005</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
         <v>310102</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="4">
         <v>3003</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
         <v>310103</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="7">
         <v>3017</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="7">
         <v>3012</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="7">
         <v>3013</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="7">
         <v>3014</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="7">
         <v>3015</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="7">
         <v>3016</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
         <v>336010</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15">
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="7">
         <v>3023</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
         <v>339001</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="4">
         <v>3030</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
         <v>339000</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="4">
         <v>10011</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
         <v>339103</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="13">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
         <v>339104</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="13">
         <v>9000</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
         <v>331005</v>
       </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="7">
         <v>3009</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
         <v>339002</v>
       </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="7">
         <v>3012</v>
       </c>
     </row>
@@ -1534,7 +1584,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -1551,7 +1601,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
